--- a/report_template/auditReport.xlsx
+++ b/report_template/auditReport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\webApp\NoiseAuditor\report_template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAF3AAB0-6132-41A0-9C9F-9BC5402B58AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5CA279D-935A-4B01-8A92-52E2DD5E7965}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{E1C5D9DB-EA1C-4647-9AED-08E85EF852D6}"/>
+    <workbookView xWindow="1200" yWindow="1755" windowWidth="22575" windowHeight="10125" activeTab="3" xr2:uid="{E1C5D9DB-EA1C-4647-9AED-08E85EF852D6}"/>
   </bookViews>
   <sheets>
     <sheet name="每秒噪音監測資料" sheetId="1" r:id="rId1"/>
@@ -120,9 +120,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="[$-409]yyyy/m/d\ h:mm\ AM/PM;@"/>
-  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -166,7 +163,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -485,27 +482,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99595EF9-7E75-45D3-B349-5B1A96D7678E}">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.625" style="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
     </row>

--- a/report_template/auditReport.xlsx
+++ b/report_template/auditReport.xlsx
@@ -5,18 +5,21 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\webApp\NoiseAuditor\report_template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\webApp\NoiseAuditor\report_template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5CA279D-935A-4B01-8A92-52E2DD5E7965}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A0EE80E-FC88-4E6A-A589-1A06EAB4F8D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1200" yWindow="1755" windowWidth="22575" windowHeight="10125" activeTab="3" xr2:uid="{E1C5D9DB-EA1C-4647-9AED-08E85EF852D6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="6" xr2:uid="{E1C5D9DB-EA1C-4647-9AED-08E85EF852D6}"/>
   </bookViews>
   <sheets>
     <sheet name="每秒噪音監測資料" sheetId="1" r:id="rId1"/>
     <sheet name="噪音事件監測資料" sheetId="3" r:id="rId2"/>
     <sheet name="每小時噪音監測資料" sheetId="2" r:id="rId3"/>
     <sheet name="每日噪音監測資料" sheetId="4" r:id="rId4"/>
+    <sheet name="每月噪音監測資料" sheetId="5" r:id="rId5"/>
+    <sheet name="每季噪音監測資料" sheetId="6" r:id="rId6"/>
+    <sheet name="一年噪音監測資料" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="28">
   <si>
     <t>稽核資料：每小時噪音監測資料</t>
   </si>
@@ -113,6 +116,26 @@
   </si>
   <si>
     <t>稽核資料：每日噪音監測資料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>稽核資料：每月噪音監測資料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>稽核資料：每季噪音監測資料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>稽核資料：一年噪音監測資料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>稽核時間：2021/1/1到2021/3/31 23:59:59的每月資料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>稽核時間：2021/1/1到2021/3/31 23:59:59的每季資料</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -486,27 +509,27 @@
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="18.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -526,22 +549,22 @@
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="18.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -561,82 +584,82 @@
       <selection activeCell="A4" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="18.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -651,87 +674,375 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A367C4D2-A6FF-40AE-862F-4ECD2E44765D}">
   <dimension ref="A1:A15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.625" customWidth="1"/>
+    <col min="1" max="1" width="18.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0C401C7-5453-4E71-95CF-9F860C78E373}">
+  <dimension ref="A1:A15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76DD9A84-C0F5-457D-B6C7-EB242D8B42FA}">
+  <dimension ref="A1:A15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86A5552C-43F3-4432-B85C-1B9E5F16B65B}">
+  <dimension ref="A1:A15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
